--- a/Week9/Penaetal_2016_data.xlsx
+++ b/Week9/Penaetal_2016_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\williamss\Week9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4B9F5-31EE-4520-AE2D-46DADEE38E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{981E8DA5-BECC-4C6F-9FB0-42B0C616D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invertebrate_community" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="1675">
   <si>
     <t>Muizenbos</t>
   </si>
@@ -5098,6 +5098,9 @@
   </si>
   <si>
     <t xml:space="preserve">Land_use </t>
+  </si>
+  <si>
+    <t>LandUse</t>
   </si>
 </sst>
 </file>
@@ -17041,7 +17044,7 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -32998,8 +33001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33013,7 +33016,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1674</v>
       </c>
       <c r="C1" t="s">
         <v>56</v>
@@ -33717,7 +33720,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -33761,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -33805,7 +33808,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -33849,7 +33852,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -33893,7 +33896,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -33937,7 +33940,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -33981,7 +33984,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -34025,7 +34028,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -34069,7 +34072,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -34113,7 +34116,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -34157,7 +34160,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -34201,7 +34204,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -34245,7 +34248,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -34289,7 +34292,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -34333,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -34377,7 +34380,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -34421,7 +34424,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -34465,7 +34468,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -34509,7 +34512,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -34553,7 +34556,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -35257,7 +35260,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -35301,7 +35304,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -35345,7 +35348,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -35389,7 +35392,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -35433,7 +35436,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -35477,7 +35480,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -35521,7 +35524,7 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -35565,7 +35568,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -35609,7 +35612,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -35653,7 +35656,7 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -35697,7 +35700,7 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -35741,7 +35744,7 @@
         <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -35785,7 +35788,7 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -35829,7 +35832,7 @@
         <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -35873,7 +35876,7 @@
         <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -35914,7 +35917,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -35958,7 +35961,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -36002,7 +36005,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -36046,7 +36049,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -36090,7 +36093,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -36134,7 +36137,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -36178,7 +36181,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -36222,7 +36225,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -36266,7 +36269,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -36310,7 +36313,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -36354,7 +36357,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -36398,7 +36401,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -36442,7 +36445,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -36486,7 +36489,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -36530,7 +36533,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -36574,10 +36577,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -36618,10 +36621,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -36662,10 +36665,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -36706,10 +36709,10 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -36750,10 +36753,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -36794,10 +36797,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -36838,10 +36841,10 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -36882,10 +36885,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -36926,10 +36929,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -36970,10 +36973,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -37014,10 +37017,10 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -37058,10 +37061,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -37102,10 +37105,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -37146,10 +37149,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -37190,10 +37193,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -53925,15 +53928,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CR19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -54036,7 +54039,7 @@
       <c r="B1" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="49" t="s">
@@ -54326,7 +54329,7 @@
       <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="62">
         <v>1</v>
       </c>
       <c r="D2" s="49">
@@ -54616,7 +54619,7 @@
       <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="62">
         <v>2</v>
       </c>
       <c r="D3" s="49">
@@ -54906,7 +54909,7 @@
       <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="62">
         <v>3</v>
       </c>
       <c r="D4" s="49">
@@ -55196,7 +55199,7 @@
       <c r="B5" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="62">
         <v>1</v>
       </c>
       <c r="D5" s="49">
@@ -55486,7 +55489,7 @@
       <c r="B6" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="62">
         <v>2</v>
       </c>
       <c r="D6" s="49">
@@ -55776,7 +55779,7 @@
       <c r="B7" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="62">
         <v>3</v>
       </c>
       <c r="D7" s="49">
@@ -56061,12 +56064,12 @@
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="62">
         <v>1</v>
       </c>
       <c r="D8" s="49">
@@ -56351,12 +56354,12 @@
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="62">
         <v>2</v>
       </c>
       <c r="D9" s="49">
@@ -56641,12 +56644,12 @@
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="62">
         <v>3</v>
       </c>
       <c r="D10" s="49">
@@ -56931,12 +56934,12 @@
     </row>
     <row r="11" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="62">
         <v>1</v>
       </c>
       <c r="D11" s="49">
@@ -57221,12 +57224,12 @@
     </row>
     <row r="12" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="62">
         <v>2</v>
       </c>
       <c r="D12" s="49">
@@ -57511,12 +57514,12 @@
     </row>
     <row r="13" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="62">
         <v>3</v>
       </c>
       <c r="D13" s="49">
@@ -57806,7 +57809,7 @@
       <c r="B14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="62">
         <v>1</v>
       </c>
       <c r="D14" s="49">
@@ -58096,7 +58099,7 @@
       <c r="B15" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="62">
         <v>2</v>
       </c>
       <c r="D15" s="49">
@@ -58386,7 +58389,7 @@
       <c r="B16" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="62">
         <v>3</v>
       </c>
       <c r="D16" s="49">
@@ -58676,7 +58679,7 @@
       <c r="B17" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="62">
         <v>1</v>
       </c>
       <c r="D17" s="49">
@@ -58966,7 +58969,7 @@
       <c r="B18" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="62">
         <v>2</v>
       </c>
       <c r="D18" s="49">
@@ -59256,7 +59259,7 @@
       <c r="B19" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="62">
         <v>3</v>
       </c>
       <c r="D19" s="49">
@@ -62102,15 +62105,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>515</v>
@@ -71213,12 +71219,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
